--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91300.40347559066</v>
+        <v>-93781.32330105058</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1370,16 +1370,16 @@
         <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>40.71072521252358</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>384.0015790663271</v>
@@ -1388,7 +1388,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579955</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104941</v>
+        <v>82.26761520104945</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
@@ -1433,10 +1433,10 @@
         <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>66.43493867170605</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1537,16 +1537,16 @@
         <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271169</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292092</v>
+        <v>28.75870499835505</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443155</v>
@@ -1591,10 +1591,10 @@
         <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>51.43267089660244</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>61.67577209756924</v>
       </c>
       <c r="E14" t="n">
         <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>125.5866860793609</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>14.65678318579955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104941</v>
+        <v>82.26761520104947</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
         <v>322.3208221302866</v>
@@ -1673,7 +1673,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1768,19 +1768,19 @@
         <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>88.44202534652005</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S16" t="n">
-        <v>41.38364904447198</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
         <v>192.6288026890428</v>
@@ -1822,7 +1822,7 @@
         <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
         <v>259.6028517494646</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>283.8215270109015</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477345</v>
+        <v>3.974324134331745</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I19" t="n">
-        <v>84.85683139908105</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>274.7162491948576</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,22 +2081,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477345</v>
+        <v>336.9550866703242</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>64.76025162138102</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F22" t="n">
-        <v>133.9254590121741</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>208.053360265414</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,22 +2318,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>155.7512320878711</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>214.2140663782818</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
         <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231188</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958319</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X26" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247754</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,22 +2716,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124545</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145469</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,10 +2776,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,22 +3029,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482631</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.20693826439368</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>205.4124289181738</v>
       </c>
       <c r="W37" t="n">
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007097</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383243</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052297</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010749</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482638</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621592</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
-        <v>42.20693826439327</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333703</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>163.1068713883838</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052284</v>
+        <v>111.7690391349163</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>110.5480262953174</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.0843051033369</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C46" t="n">
-        <v>111.7690391349171</v>
+        <v>111.7690391349169</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.0843051033369</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4195,7 +4195,7 @@
         <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1781.421951016572</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C11" t="n">
-        <v>1439.651501335884</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="D11" t="n">
-        <v>1108.577869988857</v>
+        <v>1098.185049298301</v>
       </c>
       <c r="E11" t="n">
-        <v>1108.577869988857</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7840324589724</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9036495636926</v>
+        <v>351.7084810645003</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>81.31694793299107</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810562</v>
@@ -5063,10 +5063,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
         <v>3063.721540039936</v>
@@ -5078,13 +5078,13 @@
         <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479259</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2207.935722479259</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>2140.82972382097</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.7584402581845</v>
+        <v>451.9018305756484</v>
       </c>
       <c r="C13" t="n">
-        <v>619.0143245900013</v>
+        <v>310.157714907465</v>
       </c>
       <c r="D13" t="n">
-        <v>496.0897524373892</v>
+        <v>187.2331427548529</v>
       </c>
       <c r="E13" t="n">
-        <v>375.3687261147197</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>255.670845876533</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>255.670845876533</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003737</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.923822070505</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402564</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.94255636106</v>
+        <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2111.452912090498</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>1946.959095177048</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991585</v>
+        <v>1752.384547006298</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376952</v>
+        <v>1490.473747391665</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.392133430789</v>
+        <v>1262.981326445502</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535518</v>
+        <v>1000.756223668265</v>
       </c>
       <c r="X13" t="n">
-        <v>915.2148378287005</v>
+        <v>799.958740029971</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.2148378287005</v>
+        <v>606.3582281461645</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1669.516223507703</v>
+        <v>1502.254258673503</v>
       </c>
       <c r="C14" t="n">
-        <v>1669.516223507703</v>
+        <v>1160.483808992815</v>
       </c>
       <c r="D14" t="n">
-        <v>1338.442592160676</v>
+        <v>1098.185049298301</v>
       </c>
       <c r="E14" t="n">
-        <v>979.8464068221556</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="F14" t="n">
-        <v>596.0525692922716</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G14" t="n">
-        <v>208.1721863969919</v>
+        <v>351.7084810645003</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299104</v>
+        <v>81.3169479329911</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810562</v>
@@ -5285,43 +5285,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
         <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>3063.721540039936</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>3063.721540039936</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2738.144952029546</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>2391.87126102819</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>2028.923996312101</v>
+        <v>1861.662031477902</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5343,28 +5343,28 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.5194080306463</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992584</v>
@@ -5376,13 +5376,13 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831.1355997018109</v>
+        <v>418.3126375609351</v>
       </c>
       <c r="C16" t="n">
-        <v>689.3914840336274</v>
+        <v>276.5685218927518</v>
       </c>
       <c r="D16" t="n">
-        <v>566.4669118810152</v>
+        <v>276.5685218927518</v>
       </c>
       <c r="E16" t="n">
-        <v>445.745885558346</v>
+        <v>155.8474955700823</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201593</v>
+        <v>155.8474955700823</v>
       </c>
       <c r="G16" t="n">
-        <v>185.537235954602</v>
+        <v>155.8474955700823</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218343</v>
@@ -5437,49 +5437,49 @@
         <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>2098.700443357047</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1904.125895186297</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1642.215095571664</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1642.215095571664</v>
+        <v>1229.392133430788</v>
       </c>
       <c r="W16" t="n">
-        <v>1379.989992794427</v>
+        <v>967.1670306535514</v>
       </c>
       <c r="X16" t="n">
-        <v>1179.192509156133</v>
+        <v>766.3695470152576</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5919972723269</v>
+        <v>572.7690351314511</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1544.173786276205</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C17" t="n">
-        <v>1249.85296954359</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D17" t="n">
-        <v>966.2289711446365</v>
+        <v>940.9592424104345</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446365</v>
+        <v>629.8126900199873</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628259</v>
+        <v>293.4684854381767</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5537,19 +5537,19 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417717</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281943</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
         <v>2445.183887219625</v>
@@ -5558,7 +5558,7 @@
         <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398328</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.151773123554</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C19" t="n">
-        <v>537.857290403444</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989053</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243091</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8627105341957</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G19" t="n">
-        <v>223.8015741167116</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>152.2260875423663</v>
+        <v>89.19609340604107</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201114</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.65726737195</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X19" t="n">
-        <v>885.30941668173</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459968</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1632.378438483217</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C20" t="n">
-        <v>1338.057621750602</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>1054.433623351649</v>
+        <v>940.9592424104342</v>
       </c>
       <c r="E20" t="n">
-        <v>743.2870709612012</v>
+        <v>629.8126900199871</v>
       </c>
       <c r="F20" t="n">
-        <v>406.9428663793906</v>
+        <v>629.8126900199871</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,31 +5750,31 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912101</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
         <v>3289.956853344064</v>
@@ -5783,19 +5783,19 @@
         <v>3158.620805936083</v>
       </c>
       <c r="U20" t="n">
-        <v>3093.20641035893</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2836.785223223157</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2558.658268160839</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2259.834210107556</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>1944.336578339542</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5817,46 +5817,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.151773123554</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C22" t="n">
-        <v>537.857290403444</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989053</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1109578243091</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604114</v>
+        <v>89.19609340604107</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5938,22 +5938,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729437</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.65726737195</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X22" t="n">
-        <v>885.30941668173</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459968</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056952</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324338</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925384</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349368</v>
+        <v>973.0946095349357</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531262</v>
+        <v>636.7504049531251</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248244</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248244</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815079</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713544</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.05865851634</v>
+        <v>1917.058658516337</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575122</v>
+        <v>2463.83747557512</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454459</v>
+        <v>2966.809946454457</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811637</v>
+        <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567319</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124122</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859014</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451033</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932666</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796892</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734575</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681292</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913277</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714078</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902808</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290295</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.784598923574</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504589</v>
+        <v>319.250040950459</v>
       </c>
       <c r="G24" t="n">
-        <v>182.886940783077</v>
+        <v>182.8869407830771</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094449</v>
+        <v>92.38504642094466</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248244</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.319223293447</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061124</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6090,10 +6090,10 @@
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516156</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6105,7 +6105,7 @@
         <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861963</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138534</v>
+        <v>575.9874173775274</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574179</v>
+        <v>481.6929346574175</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528792</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>332.946602078283</v>
+        <v>332.9466020782826</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881696</v>
+        <v>260.6983547881693</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634015</v>
+        <v>96.06173179634004</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248244</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182944</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667906</v>
+        <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663397</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942389892618</v>
+        <v>1623.942389892617</v>
       </c>
       <c r="P25" t="n">
         <v>1856.549890326277</v>
@@ -6184,13 +6184,13 @@
         <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>1045.522905762251</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720294</v>
+        <v>829.1450609357032</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362962</v>
+        <v>682.9941819999701</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,61 +6212,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1261.907203722594</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M26" t="n">
-        <v>2240.457506552423</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N26" t="n">
-        <v>2787.236323611205</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O26" t="n">
-        <v>3290.208794490542</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277654</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834456</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,67 +6358,67 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960305</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973136</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982154</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350171</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308442</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481262</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6467,16 +6467,16 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.011402386886</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058811</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
@@ -6488,25 +6488,25 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698011</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899675</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257051</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913853</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415483</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643405</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302716</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
@@ -6622,7 +6622,7 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982171</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519675</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6701,25 +6701,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>875.932246148438</v>
       </c>
       <c r="L32" t="n">
-        <v>1635.769886219269</v>
+        <v>1326.966459396847</v>
       </c>
       <c r="M32" t="n">
-        <v>2169.301790891193</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N32" t="n">
-        <v>2716.080607949976</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>3219.053078829313</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6792,25 +6792,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
         <v>1794.243147664371</v>
@@ -6819,10 +6819,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6859,31 +6859,31 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6929,13 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810562</v>
@@ -6944,7 +6944,7 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
@@ -6965,7 +6965,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.6022649647792</v>
+        <v>500.9308303909361</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368724</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D37" t="n">
-        <v>379.22087719838</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1884.661277114358</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1692.975392941184</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1569.880212084553</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>1379.44877978404</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V37" t="n">
-        <v>1223.435726151997</v>
+        <v>1026.092857004311</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.68999068888</v>
+        <v>835.3471215411932</v>
       </c>
       <c r="X37" t="n">
-        <v>903.3718743647057</v>
+        <v>706.0290052170192</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.250729795019</v>
+        <v>583.9078606473324</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7172,22 +7172,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064548</v>
@@ -7251,10 +7251,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
         <v>765.1517452158131</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.2355359389142</v>
+        <v>599.6022649647791</v>
       </c>
       <c r="C40" t="n">
-        <v>571.9707875848505</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D40" t="n">
-        <v>520.5255827463582</v>
+        <v>379.2208771983799</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639651</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F40" t="n">
-        <v>324.393976239898</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G40" t="n">
-        <v>156.691139614617</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>109.1453874063181</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
         <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1323.410616184332</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1167.397562552288</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891712</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649972</v>
+        <v>847.3337107649975</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953105</v>
+        <v>682.5792952211755</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,67 +7394,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650711</v>
+        <v>444.8926667912275</v>
       </c>
       <c r="C43" t="n">
-        <v>473.2993530110076</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725154</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E43" t="n">
-        <v>372.6124891639657</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F43" t="n">
-        <v>324.3939762398987</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
         <v>315.6219318279954</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>877.9803925153279</v>
       </c>
       <c r="X43" t="n">
-        <v>946.005145338841</v>
+        <v>649.9908416173106</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.2125661953108</v>
+        <v>527.8696970476238</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7676,22 +7676,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7716,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031477</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.2355359389146</v>
+        <v>444.8926667912277</v>
       </c>
       <c r="C46" t="n">
-        <v>529.3375166107155</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722233</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>428.6506527636736</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058689</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1323.410616184332</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552288</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W46" t="n">
-        <v>976.6518270891713</v>
+        <v>779.3089579414846</v>
       </c>
       <c r="X46" t="n">
-        <v>847.3337107649975</v>
+        <v>649.9908416173107</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.2125661953108</v>
+        <v>527.869697047624</v>
       </c>
     </row>
   </sheetData>
@@ -8456,16 +8456,16 @@
         <v>184.4039433729009</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389606</v>
+        <v>191.4948909389605</v>
       </c>
       <c r="M8" t="n">
         <v>181.0856325333069</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830243</v>
+        <v>179.3553748830242</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383992</v>
+        <v>182.8301554383991</v>
       </c>
       <c r="P8" t="n">
         <v>190.8908035586586</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875975</v>
+        <v>112.6562001875974</v>
       </c>
       <c r="K9" t="n">
         <v>113.6031223372534</v>
@@ -8541,10 +8541,10 @@
         <v>104.1013981253594</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677669</v>
+        <v>92.30246558677665</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359737</v>
+        <v>106.8829608359736</v>
       </c>
       <c r="P9" t="n">
         <v>105.3113487798325</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784362</v>
+        <v>339.8144253784342</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>40.02214132148612</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>306.6874953089229</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-1.20792265079217e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10115,19 +10115,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>287.0017854473904</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>306.6874953089243</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>105.7385611944686</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>71.87446026386812</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.052169821033</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579953</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>292.8828533972211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719019</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>33.25330108456592</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>147.3568379053083</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.0871229359873</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>142.1009317208331</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>29.39284298067436</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271169</v>
+        <v>69.43227382271172</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292092</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>121.4652296998435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.01703144686007</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0521183134027</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.07135577741027191</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>112.339637131802</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>961210.8244417266</v>
+        <v>961210.8244417263</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>961210.8244417266</v>
+        <v>961210.8244417263</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1045698.890885756</v>
+        <v>1045698.890885757</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368674.3524226673</v>
+        <v>368674.3524226674</v>
       </c>
       <c r="C2" t="n">
         <v>368674.3524226673</v>
       </c>
       <c r="D2" t="n">
-        <v>368684.401412676</v>
+        <v>368684.4014126759</v>
       </c>
       <c r="E2" t="n">
+        <v>328293.0004072385</v>
+      </c>
+      <c r="F2" t="n">
         <v>328293.0004072386</v>
-      </c>
-      <c r="F2" t="n">
-        <v>328293.000407239</v>
       </c>
       <c r="G2" t="n">
         <v>357538.8695609419</v>
       </c>
       <c r="H2" t="n">
-        <v>357538.8695609419</v>
+        <v>357538.8695609417</v>
       </c>
       <c r="I2" t="n">
+        <v>369468.7964389276</v>
+      </c>
+      <c r="J2" t="n">
+        <v>369468.796438928</v>
+      </c>
+      <c r="K2" t="n">
         <v>369468.7964389278</v>
-      </c>
-      <c r="J2" t="n">
-        <v>369468.7964389278</v>
-      </c>
-      <c r="K2" t="n">
-        <v>369468.7964389276</v>
       </c>
       <c r="L2" t="n">
         <v>369468.7964389278</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389279</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389279</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="O2" t="n">
         <v>369468.7964389278</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389277</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552262</v>
+        <v>59764.55367552268</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163632</v>
@@ -26378,28 +26378,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487388</v>
+        <v>37580.10929487413</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983375</v>
+        <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179677</v>
+        <v>25409.43302179683</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487416</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>435086.1724434264</v>
       </c>
       <c r="E4" t="n">
-        <v>40634.10590866199</v>
+        <v>40634.10590866201</v>
       </c>
       <c r="F4" t="n">
-        <v>40634.10590866199</v>
+        <v>40634.10590866201</v>
       </c>
       <c r="G4" t="n">
-        <v>77662.26627010427</v>
+        <v>77662.2662701043</v>
       </c>
       <c r="H4" t="n">
-        <v>77662.26627010427</v>
+        <v>77662.2662701043</v>
       </c>
       <c r="I4" t="n">
-        <v>91903.68494905929</v>
+        <v>91903.68494905924</v>
       </c>
       <c r="J4" t="n">
-        <v>91012.35309462827</v>
+        <v>91012.35309462826</v>
       </c>
       <c r="K4" t="n">
         <v>91012.35309462823</v>
       </c>
       <c r="L4" t="n">
-        <v>91012.35309462823</v>
+        <v>91012.35309462828</v>
       </c>
       <c r="M4" t="n">
+        <v>92793.84288319398</v>
+      </c>
+      <c r="N4" t="n">
         <v>92793.84288319401</v>
       </c>
-      <c r="N4" t="n">
-        <v>92793.84288319395</v>
-      </c>
       <c r="O4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.842883194</v>
       </c>
       <c r="P4" t="n">
         <v>92793.84288319404</v>
@@ -26476,10 +26476,10 @@
         <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521491</v>
@@ -26488,10 +26488,10 @@
         <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184213</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480609</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26503,10 +26503,10 @@
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
+        <v>82518.59730624987</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122728.6084028702</v>
+        <v>-122733.0219807382</v>
       </c>
       <c r="C6" t="n">
-        <v>-122728.6084028702</v>
+        <v>-122733.0219807383</v>
       </c>
       <c r="D6" t="n">
-        <v>-161315.2301381393</v>
+        <v>-161319.5878882854</v>
       </c>
       <c r="E6" t="n">
-        <v>-878149.568029882</v>
+        <v>-878378.3224522804</v>
       </c>
       <c r="F6" t="n">
-        <v>211089.4041337505</v>
+        <v>210860.6497113519</v>
       </c>
       <c r="G6" t="n">
-        <v>161777.8508707489</v>
+        <v>161711.5734992042</v>
       </c>
       <c r="H6" t="n">
-        <v>199357.9601656228</v>
+        <v>199291.6827940781</v>
       </c>
       <c r="I6" t="n">
-        <v>169007.1153581926</v>
+        <v>169007.1153581927</v>
       </c>
       <c r="J6" t="n">
-        <v>163669.0686476966</v>
+        <v>163669.0686476968</v>
       </c>
       <c r="K6" t="n">
-        <v>189078.5016694933</v>
+        <v>189078.5016694934</v>
       </c>
       <c r="L6" t="n">
-        <v>151498.3923746193</v>
+        <v>151498.3923746192</v>
       </c>
       <c r="M6" t="n">
-        <v>-8011.743743240673</v>
+        <v>-8011.743743240208</v>
       </c>
       <c r="N6" t="n">
-        <v>194156.3562494842</v>
+        <v>194156.3562494834</v>
       </c>
       <c r="O6" t="n">
-        <v>194156.3562494839</v>
+        <v>194156.3562494841</v>
       </c>
       <c r="P6" t="n">
-        <v>194156.3562494839</v>
+        <v>194156.3562494838</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790622</v>
+        <v>69.78465283790629</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810305</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.70958360951228</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790622</v>
+        <v>69.78465283790629</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755392</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.8204798787375</v>
+        <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758394</v>
+        <v>97.11452592758417</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698752</v>
+        <v>90.83829126987519</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519086</v>
+        <v>84.46220888519085</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990372</v>
+        <v>7.649035050990358</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317055</v>
+        <v>75.62456067317054</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712638</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I19" t="n">
-        <v>11.49558901075704</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075528</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F22" t="n">
-        <v>11.4955890107571</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075522</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C25" t="n">
-        <v>11.49558901075673</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075534</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859175</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859068</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859114</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.72521440565365</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810494</v>
+        <v>46.72521440565419</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
-        <v>54.14548214544482</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810487</v>
+        <v>55.47778196371101</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810499</v>
+        <v>55.47778196371152</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>55.47778196371085</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C46" t="n">
-        <v>55.47778196371074</v>
+        <v>55.47778196371095</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30903,7 +30903,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -30912,16 +30912,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413314</v>
+        <v>0.2805413179413316</v>
       </c>
       <c r="H8" t="n">
-        <v>2.87309377236666</v>
+        <v>2.873093772366663</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993319</v>
+        <v>10.8155691599332</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362309</v>
+        <v>23.81059368362312</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207965</v>
+        <v>35.68590767207969</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102668</v>
+        <v>44.27152403102673</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396583</v>
+        <v>49.26060069396588</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356664</v>
+        <v>50.0576887135667</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328752</v>
+        <v>47.26805598328757</v>
       </c>
       <c r="P8" t="n">
-        <v>40.3421921966109</v>
+        <v>40.34219219661095</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783697</v>
+        <v>30.295306247837</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313217</v>
+        <v>17.62255356313219</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588094</v>
+        <v>6.3928352825881</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288179</v>
+        <v>1.22806961928818</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353065</v>
+        <v>0.02244330543530652</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796473</v>
+        <v>0.1501028381796475</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840279</v>
+        <v>1.44967741084028</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694</v>
+        <v>5.168014384694005</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906923</v>
+        <v>14.18142647906924</v>
       </c>
       <c r="K9" t="n">
-        <v>24.2383166371056</v>
+        <v>24.23831663710563</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264668</v>
+        <v>32.59140791264671</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665889</v>
+        <v>38.03263579665892</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655661</v>
+        <v>39.03924649655666</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847075</v>
+        <v>35.71328360847078</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449775</v>
+        <v>28.66305863449778</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447569</v>
+        <v>19.16049562447571</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767934</v>
+        <v>9.319542882767943</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608799</v>
+        <v>2.788094384608801</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890169</v>
+        <v>0.6050197731890176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345225</v>
+        <v>0.009875186722345235</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486833</v>
+        <v>0.1258411772486835</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811022</v>
+        <v>1.118842466811023</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078588</v>
+        <v>3.784387403078591</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481912</v>
+        <v>8.89697123148192</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489248</v>
+        <v>14.62045677489249</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477243</v>
+        <v>18.70915102477245</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908224</v>
+        <v>19.72617653908226</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115535</v>
+        <v>19.25713215115536</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875027</v>
+        <v>17.78707839875029</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287711</v>
+        <v>15.21991838287713</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852384</v>
+        <v>10.53748257852385</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381706</v>
+        <v>5.658276933381711</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233871</v>
+        <v>2.193068516233874</v>
       </c>
       <c r="T10" t="n">
-        <v>0.537685030062556</v>
+        <v>0.5376850300625565</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564554</v>
+        <v>0.006864064213564561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34445,10 +34445,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019261</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019261</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>878.735541208663</v>
+        <v>878.7355412086609</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>495.6122557138183</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>705.4494815282948</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165797</v>
+        <v>92.55355323165887</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887888</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,19 +36835,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>742.5918998397226</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>705.4494815282961</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37069,13 +37069,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>442.9298477498691</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37084,13 +37084,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>470.63644648324</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887904</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.608516012075</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302255</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
